--- a/Data/ZeLa Data/specific_rates_R2.xlsx
+++ b/Data/ZeLa Data/specific_rates_R2.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Specific Rates" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Int_U1_U3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Int_U4_U8" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Specific Rates" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,18 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -46,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -55,76 +46,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin"/>
       <right style="thin"/>
-      <top style="thin"/>
+      <top/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -489,7 +448,7 @@
   </sheetPr>
   <dimension ref="A1:AP49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -840,7 +799,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n"/>
+      <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
           <t>P12 to P14</t>
@@ -968,7 +927,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
+      <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
           <t>P2 to P4</t>
@@ -1096,7 +1055,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
+      <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
           <t>P4 to P6</t>
@@ -1224,7 +1183,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
+      <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
           <t>P6 to P8</t>
@@ -1352,7 +1311,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
+      <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
           <t>P8 to P12</t>
@@ -1612,7 +1571,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
+      <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
           <t>P12 to P14</t>
@@ -1740,7 +1699,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
           <t>P2 to P4</t>
@@ -1868,7 +1827,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
+      <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
           <t>P4 to P6</t>
@@ -1996,7 +1955,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
           <t>P6 to P8</t>
@@ -2124,7 +2083,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
           <t>P8 to P12</t>
@@ -2384,7 +2343,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n"/>
+      <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>P12 to P14</t>
@@ -2512,7 +2471,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n"/>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
           <t>P2 to P4</t>
@@ -2640,7 +2599,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n"/>
+      <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
           <t>P4 to P6</t>
@@ -2768,7 +2727,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n"/>
+      <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
           <t>P6 to P8</t>
@@ -2896,7 +2855,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
+      <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
           <t>P8 to P12</t>
@@ -3156,7 +3115,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n"/>
+      <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
           <t>P12 to P14</t>
@@ -3284,7 +3243,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n"/>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
           <t>P2 to P4</t>
@@ -3412,7 +3371,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
+      <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
           <t>P4 to P6</t>
@@ -3540,7 +3499,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
           <t>P6 to P8</t>
@@ -3668,7 +3627,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
+      <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
           <t>P8 to P12</t>
@@ -3928,7 +3887,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
+      <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
           <t>P12 to P14</t>
@@ -4056,7 +4015,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
+      <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
           <t>P2 to P4</t>
@@ -4184,7 +4143,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n"/>
+      <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
           <t>P4 to P6</t>
@@ -4312,7 +4271,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
+      <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="inlineStr">
         <is>
           <t>P6 to P8</t>
@@ -4440,7 +4399,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n"/>
+      <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
           <t>P8 to P12</t>
@@ -4700,7 +4659,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n"/>
+      <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
           <t>P12 to P14</t>
@@ -4828,7 +4787,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n"/>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
           <t>P2 to P4</t>
@@ -4956,7 +4915,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
+      <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
           <t>P4 to P6</t>
@@ -5084,7 +5043,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
+      <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
           <t>P6 to P8</t>
@@ -5212,7 +5171,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n"/>
+      <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
           <t>P8 to P12</t>
@@ -5472,7 +5431,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n"/>
+      <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
           <t>P12 to P14</t>
@@ -5600,7 +5559,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n"/>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
           <t>P2 to P4</t>
@@ -5728,7 +5687,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
+      <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
           <t>P4 to P6</t>
@@ -5856,7 +5815,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
+      <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
           <t>P6 to P8</t>
@@ -5984,7 +5943,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n"/>
+      <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
           <t>P8 to P12</t>
@@ -6244,7 +6203,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
+      <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
           <t>P12 to P14</t>
@@ -6372,7 +6331,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
+      <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
           <t>P2 to P4</t>
@@ -6500,7 +6459,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n"/>
+      <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="inlineStr">
         <is>
           <t>P4 to P6</t>
@@ -6628,7 +6587,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
+      <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
           <t>P6 to P8</t>
@@ -6756,7 +6715,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n"/>
+      <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
           <t>P8 to P12</t>
@@ -6885,2951 +6844,15 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A38:A43"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A44:A49"/>
     <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A44:A49"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AO7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Interval</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyric acid</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Glucose (Met)</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Glutamate (Met)</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Glutamine (Met)</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>Lactate (Met)</t>
-        </is>
-      </c>
-      <c r="G1" s="4" t="inlineStr">
-        <is>
-          <t>NH4 (Met)</t>
-        </is>
-      </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>SGR</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t>acetic acid</t>
-        </is>
-      </c>
-      <c r="J1" s="4" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
-      </c>
-      <c r="K1" s="4" t="inlineStr">
-        <is>
-          <t>arginine</t>
-        </is>
-      </c>
-      <c r="L1" s="4" t="inlineStr">
-        <is>
-          <t>asparagine</t>
-        </is>
-      </c>
-      <c r="M1" s="4" t="inlineStr">
-        <is>
-          <t>aspartic acid</t>
-        </is>
-      </c>
-      <c r="N1" s="4" t="inlineStr">
-        <is>
-          <t>butyric &amp; 2-hydroxy- butyric acids</t>
-        </is>
-      </c>
-      <c r="O1" s="4" t="inlineStr">
-        <is>
-          <t>citric acid</t>
-        </is>
-      </c>
-      <c r="P1" s="4" t="inlineStr">
-        <is>
-          <t>cystine</t>
-        </is>
-      </c>
-      <c r="Q1" s="4" t="inlineStr">
-        <is>
-          <t>ethanol</t>
-        </is>
-      </c>
-      <c r="R1" s="4" t="inlineStr">
-        <is>
-          <t>formic acid</t>
-        </is>
-      </c>
-      <c r="S1" s="4" t="inlineStr">
-        <is>
-          <t>fumaric acid</t>
-        </is>
-      </c>
-      <c r="T1" s="4" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="U1" s="4" t="inlineStr">
-        <is>
-          <t>glutamic acid</t>
-        </is>
-      </c>
-      <c r="V1" s="4" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
-      </c>
-      <c r="W1" s="4" t="inlineStr">
-        <is>
-          <t>glycine</t>
-        </is>
-      </c>
-      <c r="X1" s="4" t="inlineStr">
-        <is>
-          <t>histidine</t>
-        </is>
-      </c>
-      <c r="Y1" s="4" t="inlineStr">
-        <is>
-          <t>hydroxyproline</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
-        <is>
-          <t>isoleucine</t>
-        </is>
-      </c>
-      <c r="AA1" s="4" t="inlineStr">
-        <is>
-          <t>isovaleric acid</t>
-        </is>
-      </c>
-      <c r="AB1" s="4" t="inlineStr">
-        <is>
-          <t>lactic acid</t>
-        </is>
-      </c>
-      <c r="AC1" s="4" t="inlineStr">
-        <is>
-          <t>leucine</t>
-        </is>
-      </c>
-      <c r="AD1" s="4" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
-      </c>
-      <c r="AE1" s="4" t="inlineStr">
-        <is>
-          <t>malic acid</t>
-        </is>
-      </c>
-      <c r="AF1" s="4" t="inlineStr">
-        <is>
-          <t>methionine</t>
-        </is>
-      </c>
-      <c r="AG1" s="4" t="inlineStr">
-        <is>
-          <t>phenylalanine</t>
-        </is>
-      </c>
-      <c r="AH1" s="4" t="inlineStr">
-        <is>
-          <t>proline</t>
-        </is>
-      </c>
-      <c r="AI1" s="4" t="inlineStr">
-        <is>
-          <t>pyroglutamic acid</t>
-        </is>
-      </c>
-      <c r="AJ1" s="4" t="inlineStr">
-        <is>
-          <t>pyruvic acid</t>
-        </is>
-      </c>
-      <c r="AK1" s="4" t="inlineStr">
-        <is>
-          <t>serine</t>
-        </is>
-      </c>
-      <c r="AL1" s="4" t="inlineStr">
-        <is>
-          <t>threonine</t>
-        </is>
-      </c>
-      <c r="AM1" s="4" t="inlineStr">
-        <is>
-          <t>tryptophan</t>
-        </is>
-      </c>
-      <c r="AN1" s="4" t="inlineStr">
-        <is>
-          <t>tyrosine</t>
-        </is>
-      </c>
-      <c r="AO1" s="4" t="inlineStr">
-        <is>
-          <t>valine</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>P0 to P2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(0.009778303281804604, 0.011997013773048132)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>(-1.1540947048585193, -0.9979662459273104)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>(-0.040471447921957615, -0.015826533148826375)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>(-0.38316985287239425, -0.3611563750012222)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>(0.2773569564420413, 3.8638249472171955)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>(0.38414618742867246, 0.400572047535925)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>(0.03477980097000294, 0.03668187178298088)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>(0.014416090824489167, 0.024207708288618828)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>(0.1651658360510909, 0.17443952242720182)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>(-0.031290242702873006, -0.01508958744553068)</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>(-0.27847567818151747, -0.17869033483245195)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>(0.02468782212695264, 0.05264573436277739)</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>(0.012770868392390312, 0.013380761018844757)</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>(-0.01564038082377081, -0.009491585392944367)</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>(0.03487698807231296, 0.09475047057585817)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>(0.09743345933641274, 0.10461069265895219)</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>(-1.2074946679666358, 0.29724934180166596)</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>(0.011534195332658963, 0.046294880210949005)</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>(-0.6982550495749806, -0.5754079861011407)</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>(0.03059731277049602, 0.034004962921491085)</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>(-0.012410873914149398, -0.0016354899657944639)</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>(-0.01124339966035721, -0.004540371462549762)</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>(-0.02452620807717388, -0.014533183894951035)</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>(1.8165424491925724, 1.9374369623666434)</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>(-0.040539073987650484, -0.026513511432551484)</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>(-0.04586665127061576, -0.01847880516709069)</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>(-0.015214364623109192, -0.011695997541730804)</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>(-0.005755220521248266, 0.008072735650205989)</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>(0.0666426281286512, 0.14807340111957834)</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>(0.281854721244713, 0.3248243338687664)</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>(-0.08976167840884805, -0.07354878284503655)</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>(-0.20032948874428524, -0.11280559968303244)</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>(-0.030193582265938837, -0.008638282838958766)</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>(-0.01111892776924751, -0.0066294999139212794)</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>(0.009033876768037387, 0.015079230150792117)</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>(-0.034275047316753765, -0.021981910361955407)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>P12 to P14</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>(-5.837124941583671e-05, 0.0013888110063551993)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>(-0.42764554081812756, -0.11060766338101255)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>(0.0017085003678283528, 0.00840304563030498)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(0.17041095213281807, 0.22664310510793564)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>(-0.001427282240572177, 0.027940561015146623)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(-0.007542422712027455, 0.0035840628745758265)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>(0.05396298813831199, 0.11492840961814191)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>(-0.015136278297866086, 0.012622457338829232)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>(0.0005926958976818611, 0.0020849665673353186)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>(-0.003950084821090301, 0.00040239068555471985)</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>(-0.0005683424288383538, 0.0007907876382150924)</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>(-0.0015651605696508242, 0.00027801751462046644)</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>(-0.011880536819058887, -0.0017263626022007645)</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>(-0.003634556884042617, -0.0006872830459527571)</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>(8.125391711911653e-06, 0.0007843413964951041)</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>(-0.22471186573724367, -0.09571193111160566)</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>(-0.0009765634802358814, -0.0001539665238804804)</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>(-0.00042285566929020657, 0.000357505613754333)</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>(0.005682251984517234, 0.012560432057432642)</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>(-0.0008427227049095974, 0.0014875869931282246)</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>(0.003052507372133772, 0.005248029667848383)</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>(-5.67803484657455e-05, 0.001088478697695702)</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>(-0.0002620926031048532, 0.0017914496779017556)</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>(0.00016938555536827327, 0.2526495837979436)</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>(0.000356021368896869, 0.001379173986039313)</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>(0.000434366148767138, 0.003568317628939009)</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>(-8.483143707706709e-05, 0.0018814769036231982)</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>(0.000437682583443384, 0.0007094851979198648)</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>(9.220426515841202e-05, 0.00047118346875496927)</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>(0.00259508895352897, 0.0062746859212872205)</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>(-0.00561278420320948, 0.01199129755093322)</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>(-0.002217371660784206, 0.0025160960291153046)</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>(-0.0007638222226707396, 0.0013472021267165464)</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>(0.0006657895516835729, 0.0028009242613368417)</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>(8.583412292035539e-05, 0.00016932972406900356)</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>(-0.0006372373366688703, 0.0006718677701096819)</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>(-9.417447641342242e-06, 0.0013865708068743654)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>P2 to P4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(0.003675271563625392, 0.004826589076045461)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(-0.6044561458522187, -0.5092926103464591)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>(0.014601439427532384, 0.017557187567788693)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(-0.09919493525277107, -0.08992133734894675)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(0.48219315406382196, 0.9357839765283744)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>(0.10627634619320993, 0.13042398157763335)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(0.0326349974145016, 0.035864607666101986)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>(0.0012211168220927378, 0.0017257265257831997)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>(0.054041489980724756, 0.06387186748555428)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>(-0.020830360769933207, -0.017639873808573583)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>(-0.12091312393753767, -0.10902184708696197)</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>(0.01641954655521094, 0.023557512945688426)</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>(0.001268070732011292, 0.001875828941634427)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>(0.00671525297109736, 0.008538159999291091)</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>(-0.004140861139714428, -0.00378655885648832)</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>(0.017859963436015112, 0.08529808194191421)</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>(0.031395197679404435, 0.03470024520068189)</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>(-0.0001770559647167175, 0.0006607818561059121)</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>(-0.6528076935119502, -0.5654188441207981)</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>(0.01123604025390924, 0.017880554509109664)</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>(-0.12319859067666616, -0.12165910353120227)</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>(0.013269886707485353, 0.01719009722594699)</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>(-0.007595962274170535, -0.006798929345022136)</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>(-0.004851109709205191, -0.0006838263228254853)</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>(-0.017951178277391545, -0.015230854014515002)</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>(8.56343041077312e-05, 0.0012091124662277548)</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>(0.8029101777586848, 0.9228420911696348)</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>(-0.029115294066384304, -0.02583903008737509)</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>(-0.029301046813572606, -0.025546076385446658)</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>(-0.009059215300017385, -0.008703655316113633)</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>(-0.011661252625658744, -0.009867138672078196)</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>(-0.04645365355658165, -0.03723952876905806)</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>(0.00557615811057071, 0.018016255248499303)</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>(0.00274501718777555, 0.005794374351148878)</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>(-0.07333520724931221, -0.0636543109208527)</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>(-0.028340417400523166, -0.014102477167818848)</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>(-0.0042670638735911644, -0.003697578662386632)</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>(-0.012734702767110464, -0.012293782626812794)</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>(-0.023129510138093327, -0.022369934664025176)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>P4 to P6</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>(0.0008609017554181189, 0.0010970119862168445)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>(-0.3482687289063242, -0.2741506429182451)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>(-0.004989679218375609, -0.0003857684185140176)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>(-0.01540089162451687, -0.013132183167783919)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(0.09922042581200781, 0.13480188813410565)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>(-0.008739714565983523, -0.002119723140524968)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(0.015759187042837196, 0.018010251694238397)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>(0.013382169353864189, 0.017147901534292825)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>(0.00516210550837189, 0.012591906378818445)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>(-0.009176583622933583, -0.008423059105124713)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>(-0.03982078918500919, -0.03325267391088873)</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>(-0.003894850743700785, -0.003018913609844219)</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>(0.0023492906054974386, 0.002860685119503143)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>(0.0055812840522258475, 0.0058507593979178416)</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>(-0.0008655194715045342, -0.0007657068624957231)</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>(-0.03544919758977436, 0.04886551916352199)</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>(0.019987132125246387, 0.020877186856743647)</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>(-0.00023732396952000568, 0.00022973868872933507)</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>(-0.36229743741725273, -0.25477134920827293)</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>(0.0013041843957120119, 0.0043572209762323235)</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>(-0.012415692385670609, -0.010298037214210829)</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>(0.011670986840924406, 0.013281686291225255)</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>(-0.0038270257364659255, -0.0036943603943965704)</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>(-0.0021308746113966083, -0.00034278865230202436)</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>(-0.010992746655915991, -0.009400957127075118)</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>(0.0020135595016183743, 0.0022991274848732325)</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>(0.14694783093832028, 0.21770532490632175)</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>(-0.017299347908488572, -0.014662505021213726)</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>(-0.012535198072882118, -0.010837289125511733)</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>(-0.004209650550231307, -0.0038258031933853607)</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>(-0.006660599839025287, -0.005555732550227188)</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>(-0.013336330297146249, -0.010517160713223336)</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>(0.000271750873096326, 0.0052790032371630175)</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>(-0.012044229683640679, -0.01033618255351449)</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>(-0.04058016610339926, -0.03701564557743629)</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>(-0.012212511717594002, -0.0066187544329617595)</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>(-0.0031554034586504243, -0.0031084163834201803)</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>(-0.003731419552174223, -0.003514339224906953)</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>(-0.012619241891775893, -0.010905968997771378)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>P6 to P8</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>(-0.0003293189308638129, 0.0014641557758288356)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>(-0.34706647246256195, -0.1634955918222244)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>(-0.00021691455141160118, 0.004134505121376034)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(-0.008847801309962863, 0.23358062650353079)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>(0.014134647529842762, 0.022592867157491314)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>(-0.002750971486459342, -0.0009006623895201169)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>(0.047421362538896464, 0.06546027015513212)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>(-0.0215048585887599, -0.014954850176152907)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>(-0.0027208156227219375, -0.002276818467727065)</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>(-0.00981322348175549, -0.009625613596198112)</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>(-0.005924280064459941, -0.004749829239475763)</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>(0.002498381535462779, 0.002712796210789438)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>(0.0014668060579913036, 0.005174288008669866)</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>(-0.0003586636700824151, -0.00034346293005159016)</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>(-0.03831726776941037, 0.01673913363721291)</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>(0.0019636882240283583, 0.003076073290535746)</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>(0.00021111276216336764, 0.00039055331701981835)</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>(-0.39906772668102297, -0.17436100261464338)</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>(-0.0011191828279152208, 0.0010974778619404024)</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>(-7.02798542410276e-05, 0.0002622879867760501)</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>(0.0015587294035367938, 0.0040911160235603105)</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>(-0.0015300549452237375, -0.0006220020454555228)</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>(-2.035254386092923e-06, 0.000808466984221946)</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>(-0.004840537186689189, -0.0036759939515820243)</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>(0.002933500572873853, 0.005098068873045916)</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>(-0.05854270667197034, 0.3058007982609914)</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>(-0.008925741231035907, -0.005885526888404448)</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>(-0.004651288602849703, -0.0025806416496301776)</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>(-0.001710653273904481, -0.0013644112060567644)</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>(-0.002180383855889287, -0.00200330065536536)</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>(-0.0041200082040410355, -0.0022673465335450354)</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>(0.0018492205560289934, 0.003343414823380424)</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>(-0.0017837223421087731, -0.0012498713763183721)</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>(-0.010628101694209946, -0.010247316076947057)</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>(-0.0031254076789015766, 2.100806447994882e-05)</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>(-0.0022769608908868675, -0.0017532054671824746)</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>(-0.0021353638238476073, -0.001595902138450133)</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>(-0.005018596728698798, -0.0038696054275741605)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>P8 to P12</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>(0.0019056566044441234, 0.003716488463413289)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>(-0.714537274930773, -0.6040964584407338)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>(-0.00042572803425091395, 0.014211190045853177)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(0.09316392666549594, 0.30519119382250604)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>(-0.02248296400608474, 0.02737560375426956)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>(-0.012412405488411493, -0.004577246866356622)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>(0.1450305625121352, 0.2141499039542925)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>(-0.009403281120255232, 0.03580463248868407)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>(-0.0012673816089317272, -0.00047216819710100026)</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>(-0.0005025588163061834, -3.586412871309488e-05)</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>(-0.01695666955731842, -0.010598017294216777)</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>(0.0017357283905241835, 0.0032017073527114523)</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>(-0.004649964251526275, -0.0018228902467669855)</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>(-0.016956316616789303, 0.00014638188811694208)</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>(-0.014409123412924253, -0.004829554391611884)</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>(0.001776577691071778, 0.003213717365528121)</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>(-0.7209705624049728, -0.5163428721657916)</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>(-0.0001798160597928991, 0.009977753365542684)</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>(0.0004282070738353512, 0.0005919707888924992)</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>(0.0012661400598457107, 0.012699542475161252)</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>(-0.0003057516877645923, 0.00021532028533679655)</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>(-0.0015476971755954824, 0.00020422730843282666)</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>(-0.005931263297656333, -0.0007557994509091955)</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>(-1.1983134013726464e-05, 0.006447905601425941)</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>(0.3504889366094488, 0.7431651688192469)</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>(-0.007891522576897967, -2.515066614753106e-05)</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>(-0.002284113531425814, -2.090381243696868e-05)</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>(0.005014416809665759, 0.010139358001954988)</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>(-0.0014404504582286083, -0.0004226730366376347)</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>(-0.0017403721619445773, -0.0012714472284627444)</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>(-0.004533617784004512, -0.0009366101437008319)</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>(0.0008979028330982648, 0.013433756369599929)</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>(0.0017594868864802683, 0.003865420973901516)</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>(-0.000637623188363292, 0.00197132709060862)</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>(-0.005596856553672992, 0.0038166190746744075)</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>(-0.0031532201180531324, -0.002066604204656812)</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>(1.781157261427675e-05, 0.00040670862918537105)</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>(-0.004592243617510484, -0.00037000671576462984)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AO7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Interval</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>3-hydroxybutyric acid</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Glucose (Met)</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Glutamate (Met)</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Glutamine (Met)</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>Lactate (Met)</t>
-        </is>
-      </c>
-      <c r="G1" s="4" t="inlineStr">
-        <is>
-          <t>NH4 (Met)</t>
-        </is>
-      </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>SGR</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t>acetic acid</t>
-        </is>
-      </c>
-      <c r="J1" s="4" t="inlineStr">
-        <is>
-          <t>alanine</t>
-        </is>
-      </c>
-      <c r="K1" s="4" t="inlineStr">
-        <is>
-          <t>arginine</t>
-        </is>
-      </c>
-      <c r="L1" s="4" t="inlineStr">
-        <is>
-          <t>asparagine</t>
-        </is>
-      </c>
-      <c r="M1" s="4" t="inlineStr">
-        <is>
-          <t>aspartic acid</t>
-        </is>
-      </c>
-      <c r="N1" s="4" t="inlineStr">
-        <is>
-          <t>butyric &amp; 2-hydroxy- butyric acids</t>
-        </is>
-      </c>
-      <c r="O1" s="4" t="inlineStr">
-        <is>
-          <t>citric acid</t>
-        </is>
-      </c>
-      <c r="P1" s="4" t="inlineStr">
-        <is>
-          <t>cystine</t>
-        </is>
-      </c>
-      <c r="Q1" s="4" t="inlineStr">
-        <is>
-          <t>ethanol</t>
-        </is>
-      </c>
-      <c r="R1" s="4" t="inlineStr">
-        <is>
-          <t>formic acid</t>
-        </is>
-      </c>
-      <c r="S1" s="4" t="inlineStr">
-        <is>
-          <t>fumaric acid</t>
-        </is>
-      </c>
-      <c r="T1" s="4" t="inlineStr">
-        <is>
-          <t>glucose</t>
-        </is>
-      </c>
-      <c r="U1" s="4" t="inlineStr">
-        <is>
-          <t>glutamic acid</t>
-        </is>
-      </c>
-      <c r="V1" s="4" t="inlineStr">
-        <is>
-          <t>glutamine</t>
-        </is>
-      </c>
-      <c r="W1" s="4" t="inlineStr">
-        <is>
-          <t>glycine</t>
-        </is>
-      </c>
-      <c r="X1" s="4" t="inlineStr">
-        <is>
-          <t>histidine</t>
-        </is>
-      </c>
-      <c r="Y1" s="4" t="inlineStr">
-        <is>
-          <t>hydroxyproline</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
-        <is>
-          <t>isoleucine</t>
-        </is>
-      </c>
-      <c r="AA1" s="4" t="inlineStr">
-        <is>
-          <t>isovaleric acid</t>
-        </is>
-      </c>
-      <c r="AB1" s="4" t="inlineStr">
-        <is>
-          <t>lactic acid</t>
-        </is>
-      </c>
-      <c r="AC1" s="4" t="inlineStr">
-        <is>
-          <t>leucine</t>
-        </is>
-      </c>
-      <c r="AD1" s="4" t="inlineStr">
-        <is>
-          <t>lysine</t>
-        </is>
-      </c>
-      <c r="AE1" s="4" t="inlineStr">
-        <is>
-          <t>malic acid</t>
-        </is>
-      </c>
-      <c r="AF1" s="4" t="inlineStr">
-        <is>
-          <t>methionine</t>
-        </is>
-      </c>
-      <c r="AG1" s="4" t="inlineStr">
-        <is>
-          <t>phenylalanine</t>
-        </is>
-      </c>
-      <c r="AH1" s="4" t="inlineStr">
-        <is>
-          <t>proline</t>
-        </is>
-      </c>
-      <c r="AI1" s="4" t="inlineStr">
-        <is>
-          <t>pyroglutamic acid</t>
-        </is>
-      </c>
-      <c r="AJ1" s="4" t="inlineStr">
-        <is>
-          <t>pyruvic acid</t>
-        </is>
-      </c>
-      <c r="AK1" s="4" t="inlineStr">
-        <is>
-          <t>serine</t>
-        </is>
-      </c>
-      <c r="AL1" s="4" t="inlineStr">
-        <is>
-          <t>threonine</t>
-        </is>
-      </c>
-      <c r="AM1" s="4" t="inlineStr">
-        <is>
-          <t>tryptophan</t>
-        </is>
-      </c>
-      <c r="AN1" s="4" t="inlineStr">
-        <is>
-          <t>tyrosine</t>
-        </is>
-      </c>
-      <c r="AO1" s="4" t="inlineStr">
-        <is>
-          <t>valine</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>P0 to P2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>(-0.6025892242167185, -0.41393150579410987)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>(-0.05980356577796411, -0.025981274689662968)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>(-0.40755764892063306, -0.28490450018132807)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>(0.39191925640562, 0.45325688259950847)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>(0.03290039606854243, 0.03774957566811849)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>(0.028667718266107596, 0.03517351849474256)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>(0.179174105940515, 0.21881451117152126)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>(-0.03744916066103414, -0.01707934202672518)</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>(-0.3977138061694904, -0.2933238285275532)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>(0.019674230570491016, 0.04790181391800406)</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>(0.007496706278893137, 0.01499991594430617)</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>(-0.01761565545020175, -0.014357801656949925)</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>(0.004918459587373136, 1.0543586959854454)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>(0.11902194049108492, 0.13338264339897907)</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>(-0.3014728448807407, 0.12843974356759508)</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>(0.007184752960646593, 0.039001023341314306)</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>(-0.6933574768570384, -0.5304540564488852)</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>(0.04058676422862971, 0.050521267375056106)</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>(-0.02107748246207305, -0.005531745895975447)</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>(-0.02343630057375965, 0.0020852922486223145)</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>(-0.045588442330466356, -0.009037082143239613)</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>(-0.07014850719595214, -0.019051286986176984)</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>(-0.04687272700445298, -0.024047137063956073)</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>(-0.024861119275542326, -0.013913901489367754)</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>(-0.013870147438776561, 0.00912392376476128)</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>(0.002143834326569005, 0.17077115354729444)</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>(0.27467111901629815, 0.3920439367176557)</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>(0.06465100033520424, 0.11059765329870441)</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>(-0.25154520454234874, -0.1581703407652817)</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>(-0.05749543647730537, -0.024000690675868297)</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>(-0.009575021032743589, -0.004202983436522475)</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>(-0.02282017557416754, 0.0037613757817552274)</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>(-0.04995874616285853, -0.01820880477065429)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>P12 to P14</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>(5.671864342500903e-05, 0.00014445151359309774)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>(-0.15204598078482293, -0.12010442683688169)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>(0.003898732419436154, 0.0075931786990389265)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>(0.0018680134629138465, 0.004223459170930163)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(-0.010062194632355132, 0.006299474887889614)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>(0.02826752780837446, 0.03810441141000893)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>(-0.00014371775363489843, 0.000634806536305753)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>(0.0004908755044603894, 0.0012004081275878808)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>(0.0005338671414725979, 0.00123918901620873)</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>(0.00015673373406821641, 0.0009725176483736037)</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>(0.00016476683933405766, 0.0011101614451141805)</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>(-0.005361793854304319, 0.011340586220479672)</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>(-0.0031608022273712814, -0.0010383162339274489)</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>(-0.00012494551530345315, 0.00018605321298781078)</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>(-0.14822756354744762, -0.11464526949168949)</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>(0.0006058758865366025, 0.005305705984508817)</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>(2.1004985658683244e-05, 0.0002453521500456205)</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>(0.0017510961680765199, 0.007979334357469477)</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>(-8.646554219054083e-05, 0.00031823825317040563)</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>(-0.0005897320567009522, 0.0018788319713570498)</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>(-0.0017659251841102566, -0.0010168927608655137)</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>(0.0009303868894130702, 0.0031376608884843248)</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>(0.0007057906360043244, 0.001887304498402997)</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>(-0.0015065474603518166, -0.000850777412127279)</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>(0.0004912325493144666, 0.001435756163384203)</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>(-0.00010173614270499751, 0.0019580922223060133)</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>(-0.00019178821188351315, 0.0002574967822460491)</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>(-0.00012890739794730937, 0.00046680839827190567)</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>(-0.0010959649975009881, 0.0019514806490799194)</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>(0.007390193454216078, 0.01256864234410262)</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>(-0.0005567978963278509, 0.0011982847416822661)</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>(0.0004169282930982758, 0.0008957612458043003)</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>(0.0009675983816265491, 0.0027864680371789165)</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>(-0.0005596181577356445, -0.00030264117900386596)</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>(-0.0001864536682449067, 0.00019910372240943808)</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>(-0.0013584486328677777, -0.0005669803086929896)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>P2 to P4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>(-3.2590647553992705e-05, -2.3005301173215735e-05)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(-0.4919178016542207, -0.21449404466236408)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>(0.010961656945068662, 0.014850529390252006)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(-0.10767752728146184, -0.09573682540360744)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>(0.12536958596658698, 0.16772016156273512)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(0.03309354293725934, 0.03725896271642408)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>(0.003163429897603624, 0.005765958197298197)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>(0.0855297116039183, 0.10234592884863054)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>(-0.02184054080060259, -0.015544432081302713)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>(-0.1419621904147368, -0.11898489157409592)</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>(0.01140098039450006, 0.018124330295678892)</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>(0.0012374238969602544, 0.0024052160380626697)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>(0.006934522124552284, 0.007972475508818747)</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>(-0.0046692479552369855, -0.003615389789115005)</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>(-0.1123860647672498, 0.026122685972020665)</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>(0.03488081254649012, 0.03901594906126824)</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>(-0.00010296245290190587, 0.0006109889116433381)</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>(-0.5128018666153595, -0.21032634731595276)</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>(0.012459357754737617, 0.018654846092211422)</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>(-0.14177579850682964, -0.11668721976466201)</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>(0.01965249681842881, 0.02253211530701594)</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>(-0.00879441007633485, -0.007573094804368862)</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>(-0.0035609497621240634, -0.0008620685732025157)</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>(-0.020550103074560296, -0.012391254570086462)</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>(-0.00020100367506789845, 0.0010795264225121565)</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>(-0.031638877646117294, -0.02024459387257459)</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>(-0.030693326143307, -0.02552442570131967)</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>(-0.008553142754471778, -0.006663009426712466)</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>(-0.013440653304660296, -0.009231452720593827)</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>(-0.0503351630427159, -0.024339859479459616)</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>(0.014190497747165956, 0.022967433221278165)</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>(0.05364824981131903, 0.06325775955779439)</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>(-0.08608238444661302, -0.07195855084351009)</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>(-0.022528099960990634, -0.019486300969408076)</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>(-0.005012099805787642, -0.003034588015098814)</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>(-0.011409006305339562, -0.006223637561517213)</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>(-0.02399338516911602, -0.016035857263752777)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>P4 to P6</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>(-3.077181466100849e-05, 0.0005075437039357192)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>(-0.25473807969817125, -0.1817587207597564)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>(-0.0005545787238359365, 0.0027740824619133407)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>(-0.025146886646793362, -0.0060088113681410135)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>(-0.0592026562337547, -0.04892811438794703)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>(0.012047606507514207, 0.018563977057166503)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>(0.006318258008744438, 0.010244559111248984)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>(-0.0023110674196881904, 0.06424573742208017)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>(-0.010455755135535592, -0.007524772741920209)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>(-0.04191464601949123, -0.0207790508786818)</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>(-0.007688927317508935, -0.003977744005030144)</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>(0.0023148867660234495, 0.0033744403008018364)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>(0.004300337519047104, 0.005272988601241033)</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>(-0.0009795625238920276, -0.0005305638086477842)</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>(-0.011543165760148149, 0.014118065074367069)</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>(0.015695115565684876, 0.020433734685978575)</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>(1.6923459315358738e-05, 0.0002824718391872609)</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>(-0.2949144008352236, -0.2104992363213315)</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>(0.0008387987765286905, 0.002312609383916927)</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>(-0.023250074583343626, -0.005306702047029235)</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>(0.01343387992218769, 0.01784936564447119)</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>(-0.004044818114696669, -0.002677174988659622)</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>(-0.0010115532239349193, 0.00045714040612182636)</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>(-0.012873434251851685, -0.010971166837503248)</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>(0.0027452419527204553, 0.004005780525879047)</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>(0.004929959984891298, 0.006730539308141395)</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>(-0.01915198168661069, -0.016064815686269315)</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>(-0.012836377192826364, -0.00965803214508455)</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>(-0.004208630905854153, -0.00331686374233199)</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>(-0.006291270451721412, -0.004876245187581224)</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>(-0.011163059128425357, -0.008348979096629038)</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>(0.005721256585126746, 0.007617508020346531)</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>(-0.04103543299296641, -0.03201544099965636)</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>(-0.037960407970359454, -0.024999736121106834)</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>(-0.00823437184302544, -0.006761777740878502)</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>(-0.002856451664689724, -0.0025000618412307023)</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>(-0.004698205485361534, -0.003505129975567371)</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>(-0.013435187153178145, -0.011257936932072249)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>P6 to P8</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>(-0.00037852492698186115, 0.00011718079895122748)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>(-0.19439027013126545, -0.15346801641595534)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>(0.0012136993667277163, 0.002707679415475884)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>(-0.003383680765125213, -0.0006850954062367449)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>(0.01974855223419181, 0.02464143625819362)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>(0.00370763437071568, 0.007324063298029265)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>(0.01320709147065501, 0.015059319968473863)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>(-0.050677125710959066, -0.031732149314495854)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>(-0.004065001565857337, -0.0034328595894623916)</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>(-0.00907730186478068, -0.007748755314166789)</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>(-0.005817384459716347, -0.00510275734039181)</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>(0.0014957951836574402, 0.001784913121008867)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>(0.00266806659460883, 0.003606260033291396)</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>(-0.00032174508527706044, -0.00028162913724711004)</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>(-0.006719423640826434, 0.006529251428811033)</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>(0.007908951480413545, 0.010256821900547964)</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>(2.272756277266033e-05, 0.0002348421878794624)</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>(-0.20625076606968495, -0.16203561511589842)</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>(0.004172348711980756, 0.005410980065308788)</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>(-0.0011594317196841682, -0.00023838182497470088)</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>(0.010369985564195484, 0.012774711430478387)</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>(-0.0014656380221242465, -0.0009383375856510146)</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>(0.00033306349463775814, 0.0015478934542660422)</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>(-0.0077193304405954065, -0.006251470167152128)</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>(0.0064983213473177965, 0.007957968159010438)</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>(0.00032207727234095994, 0.0007955111289883827)</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>(-0.013082037132688398, -0.011019877083684413)</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>(-0.005969199560573462, -0.004639247026712824)</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>(-0.0020071473084363935, -0.0015893726336420977)</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>(-0.002558156838458056, -0.002135925238503715)</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>(-0.005346735509600738, -0.0033998376599718287)</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>(0.005115631576056727, 0.0066273259438774795)</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>(-0.003648001579676776, -0.0016276094760938225)</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>(-0.012511046560436499, -0.012115400367686666)</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>(-0.004130432834855101, -0.00298422988931783)</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>(-0.0019925987376824893, -0.0017514810758702734)</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>(-0.0021275828529658466, -0.0017192498393662802)</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>(-0.007501944000297926, -0.006290377039461414)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>P8 to P12</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>(0.0002046838456826465, 0.0004950168471630847)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>(-0.39074787703723046, -0.30743432859631203)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>(-0.002190499922163797, 0.007036138906563266)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>(0.00853351996642714, 0.016500322149629643)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>(-0.008707456283579409, -0.002937781247612042)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>(0.04925537548801375, 0.06324428885843393)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>(0.00020638592349628932, 0.0022662778876566996)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>(-0.00010357556634695947, 0.0010329026919256817)</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>(-0.00025434844684152466, 4.062053786316273e-05)</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>(-0.00984783652141786, -0.008231800063465885)</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>(0.0023085531309749593, 0.002998891895218424)</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>(-0.0006221328509569911, 0.0007488523981630563)</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>(0.0, 0.0)</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>(-0.012829672090517882, -0.004000293141379213)</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>(-0.003690244419380155, -0.0023534341254831024)</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>(0.0005386858251589672, 0.000997269817792712)</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>(-0.3775796364429282, -0.28858501999054703)</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>(0.0012222237923102232, 0.00854112084216065)</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>(9.039274645031731e-05, 0.00040797465922500696)</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>(0.010462389707782096, 0.014712699327868742)</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>(-0.0001995319925734462, 0.0005611315492715207)</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>(-0.0003738256631490164, 0.0009754825788817817)</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>(-0.006865247920011386, -0.006112753738080703)</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>(0.008794784404154403, 0.009710061806080162)</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>(0.004732924277091874, 0.007188912052584728)</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>(-0.010283532147267968, -0.008716349977511624)</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>(0.00017305167269753344, 0.0011848479799428453)</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>(0.000959392998930196, 0.0035368629386155247)</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>(-0.0010446105411460345, -0.0004085783698716649)</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>(-0.0011975133699630887, -0.0004504033351921457)</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>(-4.755907297252903e-05, 0.0022731700252405854)</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>(0.013661334882362342, 0.017123871645697345)</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>(0.0007911582573895879, 0.0014640975090758782)</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>(-0.0003911779252101695, 0.0020201074280228846)</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>(-0.0024776758338712723, -0.0009086390683384005)</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>(-0.003197541943540063, -0.0026935660760954014)</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>(-0.0006597614507865284, -9.657148355371708e-06)</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>(-0.005594632282519013, -0.004177504214123267)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>